--- a/server/public/downloads/counsel.xlsx
+++ b/server/public/downloads/counsel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김형석\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4527B16A-DD35-4D6C-A31B-B04E3159D89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CA3E2D-5106-45DB-8F23-218ACE6EEA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{54003674-7841-4304-A3BD-16156141BD4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,23 +95,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>부산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -360,6 +348,10 @@
   </si>
   <si>
     <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,22 +507,22 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,7 +842,7 @@
   <dimension ref="A1:BP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -858,18 +850,13 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="5" width="10.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="2" customWidth="1"/>
-    <col min="7" max="15" width="12.375" style="2" customWidth="1"/>
-    <col min="16" max="23" width="9" style="2"/>
-    <col min="24" max="24" width="14.75" style="2" customWidth="1"/>
-    <col min="25" max="34" width="9" style="2"/>
-    <col min="35" max="35" width="11.375" style="2" customWidth="1"/>
-    <col min="36" max="36" width="10.75" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="2"/>
+    <col min="7" max="68" width="13.875" style="2" customWidth="1"/>
+    <col min="69" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -884,108 +871,108 @@
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="10" t="s">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="4" t="s">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="4" t="s">
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="4" t="s">
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="4" t="s">
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="4" t="s">
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="4" t="s">
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="AZ1" s="7"/>
       <c r="BA1" s="7"/>
       <c r="BB1" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="BC1" s="7"/>
       <c r="BD1" s="7"/>
       <c r="BE1" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="BF1" s="7"/>
       <c r="BG1" s="7"/>
       <c r="BH1" s="7"/>
       <c r="BI1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="5"/>
       <c r="BL1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="5"/>
       <c r="BO1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="BP1" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="BP1" s="5"/>
     </row>
     <row r="2" spans="1:68" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -993,7 +980,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1022,237 +1009,237 @@
         <v>12</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>15</v>
@@ -1261,149 +1248,134 @@
         <v>15</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BP3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1414,6 +1386,21 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BH1"/>
+    <mergeCell ref="BL1:BN1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
